--- a/Variables.xlsx
+++ b/Variables.xlsx
@@ -24,24 +24,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Discount_Rate</t>
-  </si>
-  <si>
-    <t>Graduate_Repayment</t>
-  </si>
-  <si>
-    <t>Undergraduate_Repayment</t>
-  </si>
-  <si>
-    <t>Graduate_Loan_Rate</t>
-  </si>
-  <si>
-    <t>Undergraduate_Loan_Rate</t>
-  </si>
-  <si>
-    <t>Tuition_Change</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Undergraduate Repayment</t>
+  </si>
+  <si>
+    <t>Graduate Repayment</t>
+  </si>
+  <si>
+    <t>Career Years</t>
+  </si>
+  <si>
+    <t>Tuition Change</t>
+  </si>
+  <si>
+    <t>Undergraduate Loan Rate</t>
+  </si>
+  <si>
+    <t>Graduate Loan Rate</t>
+  </si>
+  <si>
+    <t>Discount Rate</t>
+  </si>
+  <si>
+    <t>Value</t>
   </si>
 </sst>
 </file>
@@ -371,59 +380,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="B6" s="1">
         <v>5.5160000000000001E-2</v>
       </c>
-      <c r="C2" s="1">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
         <v>7.0660000000000001E-2</v>
       </c>
-      <c r="D2" s="2">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2">
-        <v>15</v>
-      </c>
-      <c r="F2" s="1">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
         <v>3.1600000000000003E-2</v>
       </c>
     </row>

--- a/Variables.xlsx
+++ b/Variables.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>Variable</t>
   </si>
@@ -51,12 +51,60 @@
   </si>
   <si>
     <t>Value</t>
+  </si>
+  <si>
+    <t>Residency</t>
+  </si>
+  <si>
+    <t>Average Residency Salary</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Oral and maxillofacial surgeons</t>
+  </si>
+  <si>
+    <t>Orthodontists</t>
+  </si>
+  <si>
+    <t>Anesthesiologists</t>
+  </si>
+  <si>
+    <t>Obstetricians and gynecologists</t>
+  </si>
+  <si>
+    <t>Surgeons</t>
+  </si>
+  <si>
+    <t>Unreported Salary</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>https://www.bls.gov/ooh/healthcare/physicians-and-surgeons.htm#tab-5</t>
+  </si>
+  <si>
+    <t>https://www.bls.gov/oes/current/oes291023.htm#nat</t>
+  </si>
+  <si>
+    <t>https://www.bls.gov/oes/current/oes291022.htm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -94,11 +142,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,84 +431,211 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="6" max="6" width="68.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="C2" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="C3" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4">
+        <v>55400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="4">
+        <v>232870</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2016</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="4">
+        <v>228780</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2016</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4">
+        <v>453687</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2015</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="4">
+        <v>330696</v>
+      </c>
+      <c r="D10" s="5">
+        <v>2015</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="4">
+        <v>409665</v>
+      </c>
+      <c r="D11" s="5">
+        <v>2015</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="C12" s="3">
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B13" s="3"/>
+      <c r="C13" s="1">
         <v>5.5160000000000001E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="D13" s="6"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B14" s="3"/>
+      <c r="C14" s="1">
         <v>7.0660000000000001E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="D14" s="6"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="C15" s="1">
         <v>3.1600000000000003E-2</v>
       </c>
+      <c r="D15" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Variables.xlsx
+++ b/Variables.xlsx
@@ -434,7 +434,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Variables.xlsx
+++ b/Variables.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>Variable</t>
   </si>
@@ -96,6 +96,21 @@
   </si>
   <si>
     <t>https://www.bls.gov/oes/current/oes291022.htm</t>
+  </si>
+  <si>
+    <t>https://nces.ed.gov/programs/digest/d16/tables/dt16_330.40.asp?current=yes</t>
+  </si>
+  <si>
+    <t>https://studentaid.ed.gov/sa/types/loans/interest-rates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.treasury.gov/resource-center/data-chart-center/interest-rates/Pages/TextView.aspx?data=yield </t>
+  </si>
+  <si>
+    <t>https://studentaid.ed.gov/sa/repay-loans/understand/plans</t>
+  </si>
+  <si>
+    <t>https://www.medscape.com/features/slideshow/public/residents-salary-and-debt-report-2016#page=2</t>
   </si>
 </sst>
 </file>
@@ -433,9 +448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -444,7 +457,7 @@
     <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" style="5" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="68.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="72.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1"/>
@@ -479,15 +492,21 @@
         <v>10</v>
       </c>
       <c r="D2" s="6"/>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D3" s="6"/>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -504,13 +523,22 @@
       <c r="C5">
         <v>5</v>
       </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="4">
-        <v>55400</v>
+        <v>56500</v>
+      </c>
+      <c r="D6" s="5">
+        <v>2016</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -605,6 +633,9 @@
       <c r="C12" s="3">
         <v>3.2000000000000001E-2</v>
       </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -616,6 +647,9 @@
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="3"/>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -627,6 +661,9 @@
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="3"/>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -636,8 +673,20 @@
         <v>3.1600000000000003E-2</v>
       </c>
       <c r="D15" s="6"/>
+      <c r="F15" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F13" r:id="rId1"/>
+    <hyperlink ref="F14" r:id="rId2"/>
+    <hyperlink ref="F15" r:id="rId3"/>
+    <hyperlink ref="F2" r:id="rId4"/>
+    <hyperlink ref="F3" r:id="rId5"/>
+    <hyperlink ref="F6" r:id="rId6" location="page=2"/>
+    <hyperlink ref="F5" r:id="rId7" location="page=2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>